--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2945.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2945.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.086799552660286</v>
+        <v>1.240084767341614</v>
       </c>
       <c r="B1">
-        <v>2.610922858431534</v>
+        <v>1.031797051429749</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.10218358039856</v>
       </c>
       <c r="D1">
-        <v>2.285751765519126</v>
+        <v>3.213366508483887</v>
       </c>
       <c r="E1">
-        <v>1.308968601808665</v>
+        <v>0.9376339912414551</v>
       </c>
     </row>
   </sheetData>
